--- a/cris_demo/cris_3_videos.xlsx
+++ b/cris_demo/cris_3_videos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">VideoID</t>
   </si>
@@ -31,16 +31,22 @@
     <t xml:space="preserve">Transcribed</t>
   </si>
   <si>
-    <t xml:space="preserve">dkZ6L8LMHX8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=dkZ6L8LMHX8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eIv2fpJ8Q8s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=eIv2fpJ8Q8s</t>
+    <t xml:space="preserve">1vl8rLwuFuQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=1vl8rLwuFuQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HZR0SuUwdbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=HZR0SuUwdbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ieCX9P9zeQY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=ieCX9P9zeQY</t>
   </si>
 </sst>
 </file>
@@ -159,18 +165,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -207,9 +213,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=dkZ6L8LMHX8"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=1vl8rLwuFuQ"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
